--- a/员工归档/工作输出/屈圣冰/分班册/一对一/易婷婷、张晓琴.xlsx
+++ b/员工归档/工作输出/屈圣冰/分班册/一对一/易婷婷、张晓琴.xlsx
@@ -177,7 +177,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>课程表</t>
+    <t>一对二课程表</t>
   </si>
   <si>
     <t>时间</t>
@@ -228,6 +228,9 @@
     <t>10:40~11:20</t>
   </si>
   <si>
+    <t>数学</t>
+  </si>
+  <si>
     <t>11:30~12:10</t>
   </si>
   <si>
@@ -238,9 +241,6 @@
   </si>
   <si>
     <t>14:00~14:40</t>
-  </si>
-  <si>
-    <t>数学</t>
   </si>
   <si>
     <t>14:50~15:30</t>
@@ -261,14 +261,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,37 +296,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -331,30 +309,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,19 +331,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,24 +375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +391,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -437,9 +438,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +454,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -466,163 +604,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,30 +748,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -813,6 +789,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -822,11 +807,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,6 +836,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -853,10 +853,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,137 +865,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,6 +1003,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,8 +1017,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,16 +1038,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1421,678 +1427,678 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="16"/>
+      <c r="J2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="13"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="J4" s="9" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="J4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
     </row>
     <row r="5" customHeight="1" spans="1:17">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="J5" s="9" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="J5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="9" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:17">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="18" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:17">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="J7" s="9" t="s">
+      <c r="H7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="9" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" customHeight="1" spans="1:17">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="J8" s="9" t="s">
+      <c r="H8" s="19"/>
+      <c r="J8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="15" t="s">
+      <c r="M8" s="19"/>
+      <c r="N8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="15" t="s">
+      <c r="O8" s="19"/>
+      <c r="P8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" customHeight="1" spans="1:17">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="17"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="17"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" customHeight="1" spans="1:17">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9" t="s">
+      <c r="H10" s="19"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="15" t="s">
+      <c r="M10" s="19"/>
+      <c r="N10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="15" t="s">
+      <c r="O10" s="19"/>
+      <c r="P10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" customHeight="1" spans="1:17">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="22"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
     </row>
     <row r="12" customHeight="1" spans="1:17">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="J12" s="9" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" customHeight="1" spans="1:17">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" customHeight="1" spans="1:17">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" customHeight="1" spans="1:17">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" customHeight="1" spans="1:17">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" customHeight="1" spans="1:17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" customHeight="1" spans="1:17">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="J18" s="9" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" customHeight="1" spans="1:17">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="J19" s="9" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" customHeight="1" spans="1:17">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="J20" s="9" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9" t="s">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" customHeight="1" spans="1:17">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="12">
         <v>160</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="J21" s="9" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="12">
         <v>160</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9" t="s">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" customHeight="1" spans="1:17">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9" t="s">
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" customHeight="1" spans="1:17">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9" t="s">
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9" t="s">
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" customHeight="1" spans="1:17">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="J24" s="9" t="s">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9" t="s">
+      <c r="K24" s="12"/>
+      <c r="L24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9" t="s">
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" customHeight="1" spans="1:17">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="J25" s="9" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="74">
@@ -2179,11 +2185,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:L7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -2192,29 +2200,25 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2226,77 +2230,79 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A4" s="3" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2309,195 +2315,211 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A8" s="7" t="s">
+      <c r="D7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="10"/>
+      <c r="C8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L12" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L13" s="12" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A3:B4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
